--- a/bots/crawl_ch/output/clothes_2022-08-19.xlsx
+++ b/bots/crawl_ch/output/clothes_2022-08-19.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm schwarz M 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm schwarz M - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -704,7 +704,7 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -806,7 +806,7 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -930,7 +930,7 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1001,75 +1001,95 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6075745006</t>
+          <t>6548194</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5</t>
+          <t>Selenacare Menstruationsunterwäsche S</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Avela</t>
+          <t>Selenacare</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>5.95</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>12.25/1ST</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>12.25</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
+          <t>Selenacare Menstruationsunterwäsche S 50% Aktion 12.25 Schweizer Franken statt 24.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6365980012</t>
+          <t>6075745006</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/struempfe/avela-strumpfhose-madame-hasel-95/p/6075745006</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1079,12 +1099,12 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Avela</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>9.95</t>
+          <t>5.95</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1093,34 +1113,34 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'struempfe']</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
+          <t>Avela Strumpfhose Madame Hasel  9.5 5.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6031467006</t>
+          <t>6365980012</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/socken/naturaline-herren-socken-glatt-duo-weiss-43-45/p/6365980012</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1135,7 +1155,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>24.95</t>
+          <t>9.95</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1144,88 +1164,68 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
+          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'socken']</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Naturaline Herren T-Shirt Kurzarm weiss S - Online kein Bestand 24.95 Schweizer Franken</t>
+          <t>Naturaline Herren Socken Glatt Duo Weiss 43 - 45 9.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6548194</t>
+          <t>6031467006</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/bekleidung/socken-unterwaesche/unterwaesche/selenacare-menstruationsunterwaesche-s/p/6548194</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>/de/haushalt-tier/bekleidung/shirts-pullover/herren-shirt/naturaline-herren-t-shirt-kurzarm-weiss-s/p/6031467006</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Selenacare</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>12.25</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>12.25/1ST</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>12.25</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>24.95</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'bekleidung', 'socken-unterwaesche', 'unterwaesche']</t>
+          <t>['haushalt-tier', 'bekleidung', 'shirts-pullover', 'herren-shirt']</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Selenacare Menstruationsunterwäsche S 50% Aktion 12.25 Schweizer Franken statt 24.50 Schweizer Franken</t>
+          <t>Naturaline Herren T-Shirt Kurzarm weiss S - Online kein Bestand 24.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1278,7 +1278,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1382,7 +1382,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1488,7 +1488,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1630,7 +1630,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1825,7 +1825,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1929,7 +1929,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2033,7 +2033,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2084,7 +2084,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2135,7 +2135,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2186,7 +2186,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2237,7 +2237,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2339,7 +2339,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2392,7 +2392,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2443,7 +2443,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2494,7 +2494,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2545,7 +2545,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2647,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2698,7 +2698,7 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2749,7 +2749,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2904,7 +2904,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -2957,7 +2957,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3008,7 +3008,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3059,7 +3059,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3112,7 +3112,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3165,7 +3165,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3269,7 +3269,7 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3320,7 +3320,7 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3373,7 +3373,7 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="O55" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3526,7 +3526,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3628,7 +3628,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3730,7 +3730,7 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3783,7 +3783,7 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3834,7 +3834,7 @@
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -3987,7 +3987,7 @@
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -4038,7 +4038,7 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -4089,7 +4089,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -4160,7 +4160,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -4211,7 +4211,7 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -4333,7 +4333,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
@@ -4404,7 +4404,7 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>2022-08-19 07:02:56</t>
+          <t>2022-08-19 20:58:48</t>
         </is>
       </c>
     </row>
